--- a/Document/AIW/guid2.xlsx
+++ b/Document/AIW/guid2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\AIW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\AIW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -87,7 +87,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -819,20 +819,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>667</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>672</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>170133</xdr:colOff>
-      <xdr:row>700</xdr:row>
-      <xdr:rowOff>75405</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+      <xdr:colOff>684232</xdr:colOff>
+      <xdr:row>704</xdr:row>
+      <xdr:rowOff>132617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Ảnh 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -845,8 +845,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="127063500"/>
-          <a:ext cx="10533333" cy="6361905"/>
+          <a:off x="1171575" y="121672350"/>
+          <a:ext cx="12542857" cy="5866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1123,48 +1123,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F628"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="C668" sqref="C668"/>
+    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
+      <selection activeCell="C665" sqref="C665"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F184" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E268" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C587" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C628" t="s">
         <v>7</v>
       </c>
